--- a/TestCase/b.xlsx
+++ b/TestCase/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="8160" tabRatio="548" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="18945" windowHeight="5550" tabRatio="548" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245">
   <si>
     <t>测试数据</t>
   </si>
@@ -132,7 +132,7 @@
     <t>sign005</t>
   </si>
   <si>
-    <t>常规弹框的前往兑换按钮可正确跳转</t>
+    <t>常规弹框的【前往兑换】按钮可正确跳转</t>
   </si>
   <si>
     <t>重复用例sign004,点击页面的【前去兑换】按钮</t>
@@ -495,7 +495,7 @@
     <t>重复签到</t>
   </si>
   <si>
-    <t>yd_user_sign表有当日286669的签到数据</t>
+    <t>yd_user_sign表有当日286818的签到数据</t>
   </si>
   <si>
     <t>"result":false,"data":{},"msg":"重复签到"</t>
@@ -574,6 +574,156 @@
   </si>
   <si>
     <t>"user_info":{"user_score":2000,"sign_count":10,"sign_rank":1000,"is_signed":1,"rule_iamge":"http://wx.kjk.com"}</t>
+  </si>
+  <si>
+    <t>clt002</t>
+  </si>
+  <si>
+    <t>常规-账户积分不足</t>
+  </si>
+  <si>
+    <t>clt003</t>
+  </si>
+  <si>
+    <t>常规-积分充足-平台</t>
+  </si>
+  <si>
+    <t>clt004</t>
+  </si>
+  <si>
+    <t>常规-积分充足-仅app</t>
+  </si>
+  <si>
+    <t>clt005</t>
+  </si>
+  <si>
+    <t>常规-时间已结束不展示</t>
+  </si>
+  <si>
+    <t>clt006</t>
+  </si>
+  <si>
+    <t>常规-时间未开始不展示</t>
+  </si>
+  <si>
+    <t>clt007</t>
+  </si>
+  <si>
+    <t>常规-已兑完不展示</t>
+  </si>
+  <si>
+    <t>clt008</t>
+  </si>
+  <si>
+    <t>活动-限时-兑换次数不足</t>
+  </si>
+  <si>
+    <t>clt009</t>
+  </si>
+  <si>
+    <t>活动-限时-积分不足</t>
+  </si>
+  <si>
+    <t>clt010</t>
+  </si>
+  <si>
+    <t>活动-限时-未开始</t>
+  </si>
+  <si>
+    <t>clt011</t>
+  </si>
+  <si>
+    <t>活动-限时-已结束</t>
+  </si>
+  <si>
+    <t>clt012</t>
+  </si>
+  <si>
+    <t>活动-限时-不限次数</t>
+  </si>
+  <si>
+    <t>clt013</t>
+  </si>
+  <si>
+    <t>活动-限时-次数有剩</t>
+  </si>
+  <si>
+    <t>clt014</t>
+  </si>
+  <si>
+    <t>活动-限量-积分不足</t>
+  </si>
+  <si>
+    <t>clt015</t>
+  </si>
+  <si>
+    <t>活动-限量-次数不足</t>
+  </si>
+  <si>
+    <t>clt016</t>
+  </si>
+  <si>
+    <t>活动-限量-数量不足</t>
+  </si>
+  <si>
+    <t>clt017</t>
+  </si>
+  <si>
+    <t>活动-限量-不限次数</t>
+  </si>
+  <si>
+    <t>clt018</t>
+  </si>
+  <si>
+    <t>活动-限量-次数有剩</t>
+  </si>
+  <si>
+    <t>clt019</t>
+  </si>
+  <si>
+    <t>活动-限时限量-积分不足</t>
+  </si>
+  <si>
+    <t>clt020</t>
+  </si>
+  <si>
+    <t>活动-限时限量-已结束</t>
+  </si>
+  <si>
+    <t>clt021</t>
+  </si>
+  <si>
+    <t>活动-限时限量-未开始</t>
+  </si>
+  <si>
+    <t>clt022</t>
+  </si>
+  <si>
+    <t>活动-限时限量-次数不足</t>
+  </si>
+  <si>
+    <t>clt023</t>
+  </si>
+  <si>
+    <t>活动-限时限量-数量不足</t>
+  </si>
+  <si>
+    <t>clt024</t>
+  </si>
+  <si>
+    <t>活动-限时限量-不限次数</t>
+  </si>
+  <si>
+    <t>clt025</t>
+  </si>
+  <si>
+    <t>活动-限时限量-次数有剩</t>
+  </si>
+  <si>
+    <t>clt026</t>
+  </si>
+  <si>
+    <t>clt027</t>
   </si>
   <si>
     <t>286669及286818当日无签到数据，当日有仅支持app兑换的活动弹框图</t>
@@ -611,10 +761,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -677,48 +827,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,58 +842,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,6 +862,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -811,7 +961,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,25 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,66 +1012,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -952,13 +1024,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +1060,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1084,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,13 +1144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,17 +1191,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,21 +1229,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,35 +1259,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,10 +1296,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,138 +1308,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1298,9 +1448,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1667,7 +1814,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1684,724 +1831,724 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="52" customHeight="1" spans="1:9">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" ht="52" customHeight="1" spans="1:9">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" ht="52" customHeight="1" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" ht="52" customHeight="1" spans="1:9">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" ht="52" customHeight="1" spans="1:9">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" ht="52" customHeight="1" spans="1:9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" ht="52" customHeight="1" spans="1:9">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" ht="52" customHeight="1" spans="1:9">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" ht="52" customHeight="1" spans="1:9">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" ht="52" customHeight="1" spans="1:9">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" ht="52" customHeight="1" spans="1:9">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" ht="52" customHeight="1" spans="1:9">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" ht="10" customHeight="1" spans="1:9">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" ht="52" customHeight="1" spans="1:9">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" ht="52" customHeight="1" spans="1:9">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" ht="52" customHeight="1" spans="1:9">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" ht="52" customHeight="1" spans="1:9">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" ht="52" customHeight="1" spans="1:9">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" ht="52" customHeight="1" spans="1:9">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" ht="52" customHeight="1" spans="1:9">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" ht="52" customHeight="1" spans="1:9">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" ht="52" customHeight="1" spans="1:9">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" ht="52" customHeight="1" spans="1:9">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" ht="6" customHeight="1" spans="1:9">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" ht="52" customHeight="1" spans="1:9">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" ht="52" customHeight="1" spans="1:9">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" ht="52" customHeight="1" spans="1:9">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" ht="52" customHeight="1" spans="1:9">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" ht="52" customHeight="1" spans="1:9">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" ht="52" customHeight="1" spans="1:9">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" ht="52" customHeight="1" spans="1:9">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" ht="52" customHeight="1" spans="1:9">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" ht="52" customHeight="1" spans="1:9">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2431,16 +2578,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="30.875" customWidth="1"/>
@@ -2779,7 +2926,7 @@
       <c r="A15" t="s">
         <v>179</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2795,15 +2942,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" ht="6" customHeight="1"/>
+    <row r="16" ht="6" customHeight="1" spans="2:2">
+      <c r="B16" s="3"/>
+    </row>
     <row r="17" ht="94.5" spans="1:9">
       <c r="A17" t="s">
         <v>181</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>183</v>
       </c>
       <c r="E17" t="s">
@@ -2818,11 +2967,20 @@
       <c r="H17" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="5:8">
+    <row r="18" ht="27" spans="1:8">
+      <c r="A18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="E18" t="s">
         <v>149</v>
       </c>
@@ -2833,11 +2991,497 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" ht="27" spans="1:8">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" t="s">
+        <v>149</v>
+      </c>
       <c r="F19" t="s">
         <v>150</v>
       </c>
       <c r="H19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:8">
+      <c r="A20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:8">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:8">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:8">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:8">
+      <c r="A24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:8">
+      <c r="A25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:8">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:8">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:8">
+      <c r="A29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:8">
+      <c r="A30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:8">
+      <c r="A31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:8">
+      <c r="A32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:8">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:8">
+      <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:8">
+      <c r="A35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:8">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:8">
+      <c r="A37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:8">
+      <c r="A38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:8">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:8">
+      <c r="A40" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:8">
+      <c r="A41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:8">
+      <c r="A42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" ht="27" spans="1:8">
+      <c r="A43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2846,17 +3490,17 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F6:F18 F19:F43">
+      <formula1>"Form,Data,File"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6:E17 E18:E43">
+      <formula1>"POST,GET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H4 H5 H6:H18 H19:H43">
+      <formula1>"No,MD5,DES"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 L4 L5 L6">
       <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6:E18">
-      <formula1>"POST,GET"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F6:F19">
-      <formula1>"Form,Data,File"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H4 H5 H6:H19">
-      <formula1>"No,MD5,DES"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2893,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2945,21 +3589,21 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:12">
+    <row r="3" ht="40.5" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>148</v>
@@ -2985,17 +3629,17 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
-      <formula1>"Yes,No"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+      <formula1>"Form,Data,File"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>"Form,Data,File"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
       <formula1>"No,MD5,DES"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3030,7 +3674,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3084,13 +3728,13 @@
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>154</v>
@@ -3105,13 +3749,13 @@
         <v>150</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="I3" t="s">
         <v>152</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="L3" t="s">
         <v>152</v>
@@ -3122,17 +3766,17 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
-      <formula1>"Yes,No"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+      <formula1>"Form,Data,File"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Form,Data,File"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
       <formula1>"No,MD5,DES"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/TestCase/b.xlsx
+++ b/TestCase/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18945" windowHeight="5550" tabRatio="548" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="548" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
   <si>
     <t>测试数据</t>
   </si>
@@ -432,6 +432,9 @@
     <t>Request URL</t>
   </si>
   <si>
+    <t>Check Point</t>
+  </si>
+  <si>
     <t>Request Method</t>
   </si>
   <si>
@@ -444,9 +447,6 @@
     <t>Encryption</t>
   </si>
   <si>
-    <t>Check Point</t>
-  </si>
-  <si>
     <t>Correlation</t>
   </si>
   <si>
@@ -468,6 +468,9 @@
     <t>/users/sign_in</t>
   </si>
   <si>
+    <t>"result": true,"data":{"act_msg":{},</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
@@ -480,9 +483,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>"result": true,"data":{"act_msg":{},</t>
-  </si>
-  <si>
     <t>stage.wx-api.kuaijiankang.cn</t>
   </si>
   <si>
@@ -510,58 +510,67 @@
     <t>/users/score_conversion_coupon</t>
   </si>
   <si>
+    <t>{"user_id":"286818","act_id:1"}</t>
+  </si>
+  <si>
     <t>cvtin002</t>
   </si>
   <si>
-    <t>常规兑换已兑完的</t>
+    <t>常规-已兑完</t>
+  </si>
+  <si>
+    <t>"result": false</t>
+  </si>
+  <si>
+    <t>{"user_id":"286818","act_id:2"}</t>
   </si>
   <si>
     <t>cvtin003</t>
   </si>
   <si>
-    <t>常规兑换已结束的</t>
+    <t>常规-已结束</t>
   </si>
   <si>
     <t>cvtin004</t>
   </si>
   <si>
-    <t>常规兑换积分不足</t>
+    <t>常规-积分不足</t>
   </si>
   <si>
     <t>cvtin005</t>
   </si>
   <si>
-    <t>活动兑换成功</t>
+    <t>活动-兑换成功</t>
   </si>
   <si>
     <t>cvtin006</t>
   </si>
   <si>
-    <t>活动兑换积分不足</t>
+    <t>活动-积分不足</t>
   </si>
   <si>
     <t>cvtin007</t>
   </si>
   <si>
-    <t>活动兑换未开始</t>
+    <t>活动-未开始</t>
   </si>
   <si>
     <t>cvtin008</t>
   </si>
   <si>
-    <t>活动兑换已结束</t>
+    <t>活动-已结束</t>
   </si>
   <si>
     <t>cvtin009</t>
   </si>
   <si>
-    <t>活动兑换已兑完的</t>
+    <t>活动-已兑完</t>
   </si>
   <si>
     <t>cvtin010</t>
   </si>
   <si>
-    <t>活动兑换次数为0的</t>
+    <t>活动-次数为0</t>
   </si>
   <si>
     <t>clt001</t>
@@ -582,148 +591,226 @@
     <t>常规-账户积分不足</t>
   </si>
   <si>
+    <t>{"user_id":"286819"}</t>
+  </si>
+  <si>
     <t>clt003</t>
   </si>
   <si>
     <t>常规-积分充足-平台</t>
   </si>
   <si>
+    <t>{"user_id":"286820"}</t>
+  </si>
+  <si>
     <t>clt004</t>
   </si>
   <si>
     <t>常规-积分充足-仅app</t>
   </si>
   <si>
+    <t>{"user_id":"286821"}</t>
+  </si>
+  <si>
     <t>clt005</t>
   </si>
   <si>
     <t>常规-时间已结束不展示</t>
   </si>
   <si>
+    <t>{"user_id":"286822"}</t>
+  </si>
+  <si>
     <t>clt006</t>
   </si>
   <si>
     <t>常规-时间未开始不展示</t>
   </si>
   <si>
+    <t>{"user_id":"286823"}</t>
+  </si>
+  <si>
     <t>clt007</t>
   </si>
   <si>
     <t>常规-已兑完不展示</t>
   </si>
   <si>
+    <t>{"user_id":"286824"}</t>
+  </si>
+  <si>
     <t>clt008</t>
   </si>
   <si>
     <t>活动-限时-兑换次数不足</t>
   </si>
   <si>
+    <t>{"user_id":"286825"}</t>
+  </si>
+  <si>
     <t>clt009</t>
   </si>
   <si>
     <t>活动-限时-积分不足</t>
   </si>
   <si>
+    <t>{"user_id":"286826"}</t>
+  </si>
+  <si>
     <t>clt010</t>
   </si>
   <si>
     <t>活动-限时-未开始</t>
   </si>
   <si>
+    <t>{"user_id":"286827"}</t>
+  </si>
+  <si>
     <t>clt011</t>
   </si>
   <si>
     <t>活动-限时-已结束</t>
   </si>
   <si>
+    <t>{"user_id":"286828"}</t>
+  </si>
+  <si>
     <t>clt012</t>
   </si>
   <si>
     <t>活动-限时-不限次数</t>
   </si>
   <si>
+    <t>{"user_id":"286829"}</t>
+  </si>
+  <si>
     <t>clt013</t>
   </si>
   <si>
     <t>活动-限时-次数有剩</t>
   </si>
   <si>
+    <t>{"user_id":"286830"}</t>
+  </si>
+  <si>
     <t>clt014</t>
   </si>
   <si>
     <t>活动-限量-积分不足</t>
   </si>
   <si>
+    <t>{"user_id":"286831"}</t>
+  </si>
+  <si>
     <t>clt015</t>
   </si>
   <si>
     <t>活动-限量-次数不足</t>
   </si>
   <si>
+    <t>{"user_id":"286832"}</t>
+  </si>
+  <si>
     <t>clt016</t>
   </si>
   <si>
     <t>活动-限量-数量不足</t>
   </si>
   <si>
+    <t>{"user_id":"286833"}</t>
+  </si>
+  <si>
     <t>clt017</t>
   </si>
   <si>
     <t>活动-限量-不限次数</t>
   </si>
   <si>
+    <t>{"user_id":"286834"}</t>
+  </si>
+  <si>
     <t>clt018</t>
   </si>
   <si>
     <t>活动-限量-次数有剩</t>
   </si>
   <si>
+    <t>{"user_id":"286835"}</t>
+  </si>
+  <si>
     <t>clt019</t>
   </si>
   <si>
     <t>活动-限时限量-积分不足</t>
   </si>
   <si>
+    <t>{"user_id":"286836"}</t>
+  </si>
+  <si>
     <t>clt020</t>
   </si>
   <si>
     <t>活动-限时限量-已结束</t>
   </si>
   <si>
+    <t>{"user_id":"286837"}</t>
+  </si>
+  <si>
     <t>clt021</t>
   </si>
   <si>
     <t>活动-限时限量-未开始</t>
   </si>
   <si>
+    <t>{"user_id":"286838"}</t>
+  </si>
+  <si>
     <t>clt022</t>
   </si>
   <si>
     <t>活动-限时限量-次数不足</t>
   </si>
   <si>
+    <t>{"user_id":"286839"}</t>
+  </si>
+  <si>
     <t>clt023</t>
   </si>
   <si>
     <t>活动-限时限量-数量不足</t>
   </si>
   <si>
+    <t>{"user_id":"286840"}</t>
+  </si>
+  <si>
     <t>clt024</t>
   </si>
   <si>
     <t>活动-限时限量-不限次数</t>
   </si>
   <si>
+    <t>{"user_id":"286841"}</t>
+  </si>
+  <si>
     <t>clt025</t>
   </si>
   <si>
     <t>活动-限时限量-次数有剩</t>
   </si>
   <si>
+    <t>{"user_id":"286842"}</t>
+  </si>
+  <si>
     <t>clt026</t>
   </si>
   <si>
+    <t>{"user_id":"286843"}</t>
+  </si>
+  <si>
     <t>clt027</t>
+  </si>
+  <si>
+    <t>{"user_id":"286844"}</t>
   </si>
   <si>
     <t>286669及286818当日无签到数据，当日有仅支持app兑换的活动弹框图</t>
@@ -761,10 +848,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -819,6 +906,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -833,6 +927,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -840,15 +955,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,6 +980,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,29 +1038,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -922,46 +1046,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,13 +1069,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +1093,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,13 +1117,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,42 +1213,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1084,31 +1225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,49 +1237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,59 +1278,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1274,17 +1319,59 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1296,10 +1383,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1308,134 +1395,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1813,8 +1900,8 @@
   <sheetPr/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2580,8 +2667,8 @@
   <sheetPr/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2590,8 +2677,8 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="7" max="7" width="30.875" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="31.875" customWidth="1"/>
     <col min="11" max="11" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2662,19 +2749,19 @@
       <c r="D3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F3" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>153</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -2697,20 +2784,20 @@
       <c r="D4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E4" t="s">
-        <v>149</v>
+      <c r="E4" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>159</v>
+      <c r="I4" t="s">
+        <v>153</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>154</v>
@@ -2724,8 +2811,8 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" ht="40.5" spans="1:12">
@@ -2739,19 +2826,19 @@
       <c r="D6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F6" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" t="s">
         <v>153</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2763,183 +2850,209 @@
     </row>
     <row r="7" ht="27" spans="1:9">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E7" t="s">
-        <v>149</v>
+      <c r="E7" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F7" t="s">
         <v>150</v>
       </c>
-      <c r="H7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" ht="27" spans="1:8">
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:9">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E8" t="s">
-        <v>149</v>
+      <c r="E8" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F8" t="s">
         <v>150</v>
       </c>
-      <c r="H8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:8">
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E9" t="s">
-        <v>149</v>
+      <c r="E9" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F9" t="s">
         <v>150</v>
       </c>
-      <c r="H9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:8">
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:9">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E10" t="s">
-        <v>149</v>
-      </c>
       <c r="F10" t="s">
         <v>150</v>
       </c>
-      <c r="H10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:8">
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:9">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E11" t="s">
-        <v>149</v>
+      <c r="E11" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>150</v>
       </c>
-      <c r="H11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" ht="27" spans="1:8">
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:9">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E12" t="s">
-        <v>149</v>
+      <c r="E12" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F12" t="s">
         <v>150</v>
       </c>
-      <c r="H12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:8">
+      <c r="G12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:9">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E13" t="s">
-        <v>149</v>
+      <c r="E13" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F13" t="s">
         <v>150</v>
       </c>
-      <c r="H13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:8">
+      <c r="G13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:9">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E14" t="s">
-        <v>149</v>
+      <c r="E14" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F14" t="s">
         <v>150</v>
       </c>
-      <c r="H14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="1:8">
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:9">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E15" t="s">
-        <v>149</v>
+      <c r="E15" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F15" t="s">
         <v>150</v>
       </c>
-      <c r="H15" t="s">
-        <v>152</v>
+      <c r="G15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" ht="6" customHeight="1" spans="2:2">
@@ -2947,542 +3060,620 @@
     </row>
     <row r="17" ht="94.5" spans="1:9">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" t="s">
-        <v>149</v>
+        <v>186</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="F17" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" ht="27" spans="1:8">
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:9">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" t="s">
-        <v>149</v>
-      </c>
       <c r="F18" t="s">
         <v>150</v>
       </c>
-      <c r="H18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:8">
+      <c r="G18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:9">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F19" t="s">
         <v>150</v>
       </c>
-      <c r="H19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" ht="27" spans="1:8">
+      <c r="G19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:9">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F20" t="s">
         <v>150</v>
       </c>
-      <c r="H20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:8">
+      <c r="G20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:9">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
         <v>150</v>
       </c>
-      <c r="H21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:8">
+      <c r="G21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:9">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F22" t="s">
         <v>150</v>
       </c>
-      <c r="H22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:8">
+      <c r="G22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:9">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F23" t="s">
         <v>150</v>
       </c>
-      <c r="H23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" ht="27" spans="1:8">
+      <c r="G23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:9">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F24" t="s">
         <v>150</v>
       </c>
-      <c r="H24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:8">
+      <c r="G24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:9">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
         <v>150</v>
       </c>
-      <c r="H25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" ht="27" spans="1:8">
+      <c r="G25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:9">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
       </c>
-      <c r="H26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:8">
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:9">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
       </c>
-      <c r="H27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" ht="27" spans="1:8">
+      <c r="G27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:9">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F28" t="s">
         <v>150</v>
       </c>
-      <c r="H28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" ht="27" spans="1:8">
+      <c r="G28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:9">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
       </c>
-      <c r="H29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:8">
+      <c r="G29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:9">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
         <v>150</v>
       </c>
-      <c r="H30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" ht="27" spans="1:8">
+      <c r="G30" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:9">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
         <v>150</v>
       </c>
-      <c r="H31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" ht="27" spans="1:8">
+      <c r="G31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:9">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
         <v>150</v>
       </c>
-      <c r="H32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" ht="27" spans="1:8">
+      <c r="G32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:9">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
         <v>150</v>
       </c>
-      <c r="H33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:8">
+      <c r="G33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:9">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F34" t="s">
         <v>150</v>
       </c>
-      <c r="H34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:8">
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:9">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F35" t="s">
         <v>150</v>
       </c>
-      <c r="H35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" ht="27" spans="1:8">
+      <c r="G35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:9">
       <c r="A36" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F36" t="s">
         <v>150</v>
       </c>
-      <c r="H36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" ht="27" spans="1:8">
+      <c r="G36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:9">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F37" t="s">
         <v>150</v>
       </c>
-      <c r="H37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" ht="27" spans="1:8">
+      <c r="G37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:9">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E38" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F38" t="s">
         <v>150</v>
       </c>
-      <c r="H38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:8">
+      <c r="G38" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:9">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F39" t="s">
         <v>150</v>
       </c>
-      <c r="H39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:8">
+      <c r="G39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:9">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E40" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F40" t="s">
         <v>150</v>
       </c>
-      <c r="H40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" ht="27" spans="1:8">
+      <c r="G40" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:9">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F41" t="s">
         <v>150</v>
       </c>
-      <c r="H41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:8">
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:9">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F42" t="s">
         <v>150</v>
       </c>
-      <c r="H42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" ht="27" spans="1:8">
+      <c r="G42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" ht="27" spans="1:9">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F43" t="s">
         <v>150</v>
       </c>
-      <c r="H43" t="s">
-        <v>152</v>
+      <c r="G43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I43" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3490,13 +3681,13 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F6:F18 F19:F43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F6:F17 F18:F43">
+      <formula1>"POST,GET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6:G18 G19:G43">
       <formula1>"Form,Data,File"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6:E17 E18:E43">
-      <formula1>"POST,GET"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H4 H5 H6:H18 H19:H43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I5 I6:I18 I19:I43">
       <formula1>"No,MD5,DES"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 L4 L5 L6">
@@ -3537,7 +3728,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3562,22 +3753,22 @@
         <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>143</v>
@@ -3591,31 +3782,31 @@
     </row>
     <row r="3" ht="40.5" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>154</v>
@@ -3629,11 +3820,11 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+      <formula1>"POST,GET"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
       <formula1>"Form,Data,File"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"POST,GET"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
       <formula1>"No,MD5,DES"</formula1>
@@ -3674,7 +3865,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3705,19 +3896,19 @@
         <v>136</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>142</v>
@@ -3728,13 +3919,13 @@
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>154</v>
@@ -3743,22 +3934,22 @@
         <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J3" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="L3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3766,11 +3957,11 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
+      <formula1>"POST,GET"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"Form,Data,File"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"POST,GET"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
       <formula1>"No,MD5,DES"</formula1>
